--- a/assets/excel/2021_3-1-2.xlsx
+++ b/assets/excel/2021_3-1-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDB5B8F-4E53-463E-81C9-A1935D65F2E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6FA70A-9C16-4884-AD28-D9FF82FA2737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{28443E91-70EA-4F55-9852-0B3FB8CA690D}"/>
   </bookViews>
@@ -4258,7 +4258,7 @@
   <dimension ref="B1:F851"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17357,7 +17357,6 @@
       <c r="F851" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B9:F685" xr:uid="{35E13878-EE5E-4F8A-BB7E-A1E264CE7033}"/>
   <mergeCells count="5">
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
